--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H2">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J2">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>116.9511416666667</v>
+        <v>19.515399</v>
       </c>
       <c r="N2">
-        <v>350.853425</v>
+        <v>58.546197</v>
       </c>
       <c r="O2">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="P2">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="Q2">
-        <v>1606.809161078442</v>
+        <v>150.736532052621</v>
       </c>
       <c r="R2">
-        <v>14461.28244970598</v>
+        <v>1356.628788473589</v>
       </c>
       <c r="S2">
-        <v>0.2524851700175913</v>
+        <v>0.04928786315285762</v>
       </c>
       <c r="T2">
-        <v>0.2524851700175913</v>
+        <v>0.04928786315285762</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H3">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J3">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>133.0753813333334</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="N3">
-        <v>399.2261440000001</v>
+        <v>399.226144</v>
       </c>
       <c r="O3">
-        <v>0.468668312644395</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="P3">
-        <v>0.4686683126443951</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="Q3">
-        <v>1828.342492370486</v>
+        <v>1027.871450835659</v>
       </c>
       <c r="R3">
-        <v>16455.08243133437</v>
+        <v>9250.843057520928</v>
       </c>
       <c r="S3">
-        <v>0.287295701455123</v>
+        <v>0.3360936245357667</v>
       </c>
       <c r="T3">
-        <v>0.287295701455123</v>
+        <v>0.3360936245357667</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.739149</v>
+        <v>7.723979</v>
       </c>
       <c r="H4">
-        <v>41.217447</v>
+        <v>23.171937</v>
       </c>
       <c r="I4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="J4">
-        <v>0.6130043224686931</v>
+        <v>0.471042132528101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>101.751317</v>
       </c>
       <c r="O4">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="P4">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="Q4">
-        <v>465.9921684030776</v>
+        <v>261.9750119101143</v>
       </c>
       <c r="R4">
-        <v>4193.929515627699</v>
+        <v>2357.775107191029</v>
       </c>
       <c r="S4">
-        <v>0.07322345099597879</v>
+        <v>0.08566064483947668</v>
       </c>
       <c r="T4">
-        <v>0.07322345099597879</v>
+        <v>0.08566064483947668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>12.10211</v>
       </c>
       <c r="I5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J5">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>116.9511416666667</v>
+        <v>19.515399</v>
       </c>
       <c r="N5">
-        <v>350.853425</v>
+        <v>58.546197</v>
       </c>
       <c r="O5">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="P5">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="Q5">
-        <v>471.7851936918611</v>
+        <v>78.72583513062999</v>
       </c>
       <c r="R5">
-        <v>4246.06674322675</v>
+        <v>708.53251617567</v>
       </c>
       <c r="S5">
-        <v>0.07413373518552935</v>
+        <v>0.0257417902327643</v>
       </c>
       <c r="T5">
-        <v>0.07413373518552935</v>
+        <v>0.0257417902327643</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>12.10211</v>
       </c>
       <c r="I6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J6">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>133.0753813333334</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="N6">
-        <v>399.2261440000001</v>
+        <v>399.226144</v>
       </c>
       <c r="O6">
-        <v>0.468668312644395</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="P6">
-        <v>0.4686683126443951</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="Q6">
-        <v>536.8309677293156</v>
+        <v>536.8309677293155</v>
       </c>
       <c r="R6">
-        <v>4831.478709563841</v>
+        <v>4831.478709563839</v>
       </c>
       <c r="S6">
-        <v>0.08435467100951348</v>
+        <v>0.1755331034445047</v>
       </c>
       <c r="T6">
-        <v>0.08435467100951348</v>
+        <v>0.1755331034445047</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>12.10211</v>
       </c>
       <c r="I7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="J7">
-        <v>0.1799879973398545</v>
+        <v>0.2460132574367717</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>101.751317</v>
       </c>
       <c r="O7">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="P7">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="Q7">
         <v>136.8228478865411</v>
@@ -880,10 +880,10 @@
         <v>1231.40563097887</v>
       </c>
       <c r="S7">
-        <v>0.02149959114481168</v>
+        <v>0.04473836375950267</v>
       </c>
       <c r="T7">
-        <v>0.02149959114481169</v>
+        <v>0.04473836375950267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.918871</v>
       </c>
       <c r="I8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J8">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>116.9511416666667</v>
+        <v>19.515399</v>
       </c>
       <c r="N8">
-        <v>350.853425</v>
+        <v>58.546197</v>
       </c>
       <c r="O8">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="P8">
-        <v>0.4118815492210269</v>
+        <v>0.1046357846766865</v>
       </c>
       <c r="Q8">
-        <v>542.6092847203528</v>
+        <v>90.54410706484299</v>
       </c>
       <c r="R8">
-        <v>4883.483562483175</v>
+        <v>814.896963583587</v>
       </c>
       <c r="S8">
-        <v>0.08526264401790631</v>
+        <v>0.02960613129106464</v>
       </c>
       <c r="T8">
-        <v>0.08526264401790631</v>
+        <v>0.02960613129106464</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.918871</v>
       </c>
       <c r="I9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J9">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>133.0753813333334</v>
+        <v>133.0753813333333</v>
       </c>
       <c r="N9">
-        <v>399.2261440000001</v>
+        <v>399.226144</v>
       </c>
       <c r="O9">
-        <v>0.468668312644395</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="P9">
-        <v>0.4686683126443951</v>
+        <v>0.7135107484588257</v>
       </c>
       <c r="Q9">
-        <v>617.4196886848249</v>
+        <v>617.4196886848248</v>
       </c>
       <c r="R9">
-        <v>5556.777198163425</v>
+        <v>5556.777198163423</v>
       </c>
       <c r="S9">
-        <v>0.09701794017975855</v>
+        <v>0.2018840204785543</v>
       </c>
       <c r="T9">
-        <v>0.09701794017975857</v>
+        <v>0.2018840204785543</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.918871</v>
       </c>
       <c r="I10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="J10">
-        <v>0.2070076801914524</v>
+        <v>0.2829446100351274</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>101.751317</v>
       </c>
       <c r="O10">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="P10">
-        <v>0.119450138134578</v>
+        <v>0.1818534668644878</v>
       </c>
       <c r="Q10">
         <v>157.3626061559007</v>
@@ -1066,10 +1066,10 @@
         <v>1416.263455403107</v>
       </c>
       <c r="S10">
-        <v>0.02472709599378754</v>
+        <v>0.05145445826550847</v>
       </c>
       <c r="T10">
-        <v>0.02472709599378754</v>
+        <v>0.05145445826550847</v>
       </c>
     </row>
   </sheetData>
